--- a/data/income_statement/2digits/size/20_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/20_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>20-Manufacture of chemicals and chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>20-Manufacture of chemicals and chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>670349.4813499999</v>
+        <v>750890.78964</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>667226.0739099999</v>
+        <v>749570.7086799999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>724370.7216800001</v>
+        <v>808918.6156300001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>608021.51352</v>
+        <v>711547.2053799999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>624308.15451</v>
+        <v>733311.84008</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>634832.30472</v>
+        <v>749604.0446700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>626203.4535500001</v>
+        <v>763770.4211800001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>769188.1346500001</v>
+        <v>908056.11661</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>659037.3136399999</v>
+        <v>800395.1794400001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2072784.79385</v>
+        <v>2359601.08816</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2090465.10571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2405786.56069</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3102811.367</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>632321.1093100001</v>
+        <v>703038.55724</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>626749.0705799999</v>
+        <v>700694.85433</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>678869.0573999999</v>
+        <v>754957.62775</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>556057.52151</v>
+        <v>649942.8174399999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>577645.9458400001</v>
+        <v>675346.19548</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>593303.1180199999</v>
+        <v>696483.04073</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>562306.9617999999</v>
+        <v>676047.5146700001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>646074.8126599999</v>
+        <v>770323.81374</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>586442.2049299999</v>
+        <v>712223.87474</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1867222.76494</v>
+        <v>2111862.91922</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1841102.10225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2104062.54486</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2748779.205</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>31626.04022000001</v>
+        <v>37248.43826</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>32723.83965</v>
+        <v>38132.53027</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>38641.20742</v>
+        <v>43672.93705</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>45843.68513</v>
+        <v>52073.26204000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>42515.6668</v>
+        <v>49158.25128</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>36402.7398</v>
+        <v>43419.98285</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>57322.72476</v>
+        <v>74284.14091</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>116542.14169</v>
+        <v>125603.95502</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>63176.13443999999</v>
+        <v>72605.3416</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>185007.85067</v>
+        <v>217539.39839</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>225644.44111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>265361.77364</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>306183.159</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6402.33182</v>
+        <v>10603.79414</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7753.16368</v>
+        <v>10743.32408</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6860.45686</v>
+        <v>10288.05083</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6120.30688</v>
+        <v>9531.125900000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4146.54187</v>
+        <v>8807.393320000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5126.446899999999</v>
+        <v>9701.02109</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6573.766989999999</v>
+        <v>13438.7656</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6571.1803</v>
+        <v>12128.34785</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9418.974269999999</v>
+        <v>15565.9631</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>20554.17824</v>
+        <v>30198.77055</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>23718.56235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36362.24219</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>47849.003</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9369.681879999998</v>
+        <v>11126.53264</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8411.388429999999</v>
+        <v>9731.389440000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10449.58198</v>
+        <v>11737.55686</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8048.453939999999</v>
+        <v>16708.38344</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6488.83409</v>
+        <v>9333.900230000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6555.5445</v>
+        <v>7861.42028</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5160.40711</v>
+        <v>7242.420160000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4203.31261</v>
+        <v>7710.98834</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4593.443800000001</v>
+        <v>7082.346890000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>16454.44317</v>
+        <v>19633.94381</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19310.69797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25767.66156000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>64759.082</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5822.85892</v>
+        <v>6928.85278</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6108.76502</v>
+        <v>7253.90827</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7067.811630000001</v>
+        <v>8280.907219999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5942.935149999999</v>
+        <v>14264.5588</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4886.59924</v>
+        <v>7508.863190000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5177.00872</v>
+        <v>6291.23913</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4049.9307</v>
+        <v>5847.717189999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3250.76705</v>
+        <v>5334.35619</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3973.01113</v>
+        <v>5229.61462</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>12973.31436</v>
+        <v>15773.10554</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>15652.82316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20335.47168</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>44342.281</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3011.70013</v>
+        <v>3562.7662</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1476.60617</v>
+        <v>1648.87255</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2509.53432</v>
+        <v>2584.10859</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1518.23576</v>
+        <v>1760.49529</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1169.42386</v>
+        <v>1349.3407</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1088.60315</v>
+        <v>1244.71317</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>815.77374</v>
+        <v>958.6276200000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>762.5245399999999</v>
+        <v>2053.32926</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>457.49542</v>
+        <v>1650.02629</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1384.90814</v>
+        <v>1644.34773</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2090.19563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2330.50793</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17780.312</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>535.1228299999999</v>
+        <v>634.91366</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>826.01724</v>
+        <v>828.60862</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>872.23603</v>
+        <v>872.5410499999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>587.2830300000001</v>
+        <v>683.3293500000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>432.81099</v>
+        <v>475.69634</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>289.93263</v>
+        <v>325.46798</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>294.7026700000001</v>
+        <v>436.07535</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>190.02102</v>
+        <v>323.30289</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>162.93725</v>
+        <v>202.70598</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2096.22067</v>
+        <v>2216.49054</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1567.67918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3101.68195</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2636.489</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>660979.7994700001</v>
+        <v>739764.257</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>658814.68548</v>
+        <v>739839.31924</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>713921.1397000001</v>
+        <v>797181.05877</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>599973.0595799999</v>
+        <v>694838.8219400001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>617819.32042</v>
+        <v>723977.93985</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>628276.7602200001</v>
+        <v>741742.62439</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>621043.0464400001</v>
+        <v>756528.00102</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>764984.82204</v>
+        <v>900345.12827</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>654443.8698399999</v>
+        <v>793312.8325499999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2056330.35068</v>
+        <v>2339967.14435</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2071154.40774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2380018.89913</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3038052.285</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>555652.7470399999</v>
+        <v>617411.75324</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>550474.13284</v>
+        <v>613939.70872</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>602217.49662</v>
+        <v>664521.61706</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>501047.51775</v>
+        <v>578472.45096</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>524472.05973</v>
+        <v>607159.63148</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>530196.20296</v>
+        <v>619407.13749</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>523660.09328</v>
+        <v>626278.12626</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>652929.31897</v>
+        <v>756487.3546900001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>540396.98804</v>
+        <v>644371.45953</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1722727.7735</v>
+        <v>1941410.03304</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1726967.40168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1954354.97184</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2526935.592</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>274686.41742</v>
+        <v>316439.84725</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>289460.69381</v>
+        <v>332189.51474</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>302692.16877</v>
+        <v>342638.74999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>230118.25798</v>
+        <v>282622.61557</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>227416.40539</v>
+        <v>280821.70134</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>247725.77839</v>
+        <v>304064.6049</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>222420.32943</v>
+        <v>284225.6791599999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>333631.64657</v>
+        <v>400297.83873</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>231794.47516</v>
+        <v>301377.19596</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>794706.4860499999</v>
+        <v>908983.9652300001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>853373.4380600001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1010926.5289</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1103157.913</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>264476.82842</v>
+        <v>282095.55293</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>238288.23661</v>
+        <v>257565.27778</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>283881.80607</v>
+        <v>304229.53193</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>249882.77673</v>
+        <v>272736.94639</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>276486.96328</v>
+        <v>303906.7798</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>268601.05304</v>
+        <v>298022.95902</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>285937.44113</v>
+        <v>321461.13246</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>301624.8242800001</v>
+        <v>332880.39754</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>283739.9131599999</v>
+        <v>313057.5492299999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>880814.9607899999</v>
+        <v>974728.11876</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>824678.2236600001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>885420.79427</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1327216.862</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>14730.446</v>
+        <v>16507.85321</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>21805.36068</v>
+        <v>23063.10558</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14904.09111</v>
+        <v>16779.70917</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>19942.18401</v>
+        <v>21445.07172</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>17891.02833</v>
+        <v>19295.40856</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11806.19692</v>
+        <v>14432.13664</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>14257.2582</v>
+        <v>18695.17454</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15720.72087</v>
+        <v>19428.58395</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>21375.69653</v>
+        <v>25342.87565</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>44092.63543000001</v>
+        <v>53034.82334999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>44324.45526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>52376.73459</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>85913.52800000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1759.0552</v>
+        <v>2368.49985</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>919.8417399999998</v>
+        <v>1121.81062</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>739.43067</v>
+        <v>873.6259699999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1104.29903</v>
+        <v>1667.81728</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2677.66273</v>
+        <v>3135.74178</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2063.17461</v>
+        <v>2887.43693</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1045.06452</v>
+        <v>1896.1401</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1952.12725</v>
+        <v>3880.53447</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3486.90319</v>
+        <v>4593.83869</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3113.69123</v>
+        <v>4663.125700000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4591.284699999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5630.91408</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>10647.289</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>105327.05243</v>
+        <v>122352.50376</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>108340.55264</v>
+        <v>125899.61052</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>111703.64308</v>
+        <v>132659.44171</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>98925.54183</v>
+        <v>116366.37098</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>93347.26069000001</v>
+        <v>116818.30837</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>98080.55725999999</v>
+        <v>122335.4869</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>97382.95316</v>
+        <v>130249.87476</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>112055.50307</v>
+        <v>143857.77358</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>114046.8818</v>
+        <v>148941.37302</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>333602.57718</v>
+        <v>398557.11131</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>344187.00606</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>425663.92729</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>511116.693</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>88188.36994999999</v>
+        <v>107073.33195</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>92910.67498</v>
+        <v>114203.65001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>97997.77820000002</v>
+        <v>123877.19257</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>92055.24062000001</v>
+        <v>128249.79139</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>91702.94687</v>
+        <v>125588.83789</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>96124.29622</v>
+        <v>129196.75073</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>95771.65626999999</v>
+        <v>142107.63049</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>107064.08785</v>
+        <v>159072.40242</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>109778.6223</v>
+        <v>167096.28112</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>277488.4284799999</v>
+        <v>354542.53186</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>305103.86615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>392659.75689</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>440727.237</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>579.04522</v>
+        <v>715.6566099999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1213.28445</v>
+        <v>1668.11002</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>579.56492</v>
+        <v>1254.55838</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>806.92335</v>
+        <v>1232.21768</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>644.87011</v>
+        <v>915.31791</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>741.2803999999999</v>
+        <v>1006.15603</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1529.94553</v>
+        <v>1765.16958</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1774.74573</v>
+        <v>2084.49934</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>990.5154699999999</v>
+        <v>1395.60653</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3066.67219</v>
+        <v>3258.93421</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6261.99425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7203.10962</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4444.326</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>19278.77844</v>
+        <v>22615.54308</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>19443.43935</v>
+        <v>23083.9444</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>22946.8345</v>
+        <v>27419.13107</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20689.10494</v>
+        <v>25882.55242</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>17132.69525</v>
+        <v>22392.82538</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>19881.16244</v>
+        <v>24356.89931</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18624.28054</v>
+        <v>26482.98966</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>20827.40053</v>
+        <v>28287.26601</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>20842.97374</v>
+        <v>28161.55606</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>65595.12062</v>
+        <v>78141.53219000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>69091.93991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>85083.83330000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>84712.09299999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>68330.54629000001</v>
+        <v>83742.13226</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>72253.95117999999</v>
+        <v>89451.59559</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>74471.37878</v>
+        <v>95203.50312000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>70559.21232999999</v>
+        <v>101135.02129</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>73925.38150999999</v>
+        <v>102280.6946</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>75501.85338</v>
+        <v>103833.69539</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>75617.43019999999</v>
+        <v>113859.47125</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>84461.94159</v>
+        <v>128700.63707</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>87945.13309</v>
+        <v>137539.11853</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>208826.63567</v>
+        <v>273142.06546</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>229749.93199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>300372.81397</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>351570.818</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>17138.68248</v>
+        <v>15279.17181</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>15429.87766</v>
+        <v>11695.96051</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>13705.86488</v>
+        <v>8782.24914</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>6870.30121</v>
+        <v>-11883.42041</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1644.313819999999</v>
+        <v>-8770.52952</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1956.26104</v>
+        <v>-6861.26383</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1611.29689</v>
+        <v>-11857.75573</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4991.41522</v>
+        <v>-15214.62884</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4268.259500000001</v>
+        <v>-18154.9081</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>56114.14870000001</v>
+        <v>44014.57945</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>39083.13991000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>33004.1704</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>70389.45600000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14940.44296</v>
+        <v>26746.21955</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4180.63697</v>
+        <v>14872.7003</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4244.5951</v>
+        <v>16684.75454</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2911.04309</v>
+        <v>11575.99669</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3915.76241</v>
+        <v>12550.29282</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5415.402929999999</v>
+        <v>43477.72198</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5242.17326</v>
+        <v>50137.05618</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5277.02729</v>
+        <v>99001.58338</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5326.15958</v>
+        <v>34595.24801</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>34438.07212</v>
+        <v>682544.1071</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24689.14543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>748198.93929</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>806130.8199999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>2617.42335</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>2085.05327</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>49.5</v>
+        <v>56.8819</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0.49786</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0.00051</v>
+        <v>28.34386</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>169.34284</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>14.96176</v>
+        <v>225.86604</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3.51469</v>
+        <v>808.85565</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>128.21722</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>226.22089</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1.17767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>715.1261</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>299.342</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,91 +1839,101 @@
         <v>2.99415</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1755.90719</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>41756.96044</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>7021.03818</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>177.38893</v>
+        <v>522964.9429</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>10.02349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>560822.12083</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>101023.606</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>920.5972399999999</v>
+        <v>2946.92397</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>553.8189299999999</v>
+        <v>2570.44279</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>251.98527</v>
+        <v>1756.15384</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>233.23993</v>
+        <v>1690.80835</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>293.09236</v>
+        <v>3385.56858</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>317.88776</v>
+        <v>4398.91599</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>350.1347</v>
+        <v>3208.68964</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>347.65694</v>
+        <v>3506.71794</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>524.52924</v>
+        <v>3827.00883</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1709.30115</v>
+        <v>80925.61894</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2488.211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24169.33152</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>46299.915</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11.18824</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>178.01915</v>
+        <v>184.13915</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>5.1564</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>16.27953</v>
+        <v>16.2806</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1.12201</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>25.43082</v>
+        <v>100.18921</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5.96537</v>
+        <v>6.01205</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>27.14676</v>
+        <v>202.80242</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>0.07254000000000001</v>
@@ -1916,145 +1942,165 @@
         <v>113.85718</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>296.38875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>461.48744</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>317.31</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>92.87008999999999</v>
+        <v>124.84409</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>146.03136</v>
+        <v>763.73967</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>87.86180999999999</v>
+        <v>1039.2328</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>85.46420999999999</v>
+        <v>286.97897</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>90.33594000000001</v>
+        <v>155.99608</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>49.86955</v>
+        <v>24069.32292</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>16.7334</v>
+        <v>24025.22257</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>28.19946</v>
+        <v>25775.52829</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>14.37384</v>
+        <v>45.37372999999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>921.17638</v>
+        <v>1106.25205</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>41.65205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>184.58929</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>55.065</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>204.54722</v>
+        <v>338.6759</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>66.63316</v>
+        <v>168.10781</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>50.87602999999999</v>
+        <v>101.31775</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>93.82286000000001</v>
+        <v>450.79696</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>148.88881</v>
+        <v>225.20154</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>79.11770999999999</v>
+        <v>206.62239</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>27.19186</v>
+        <v>92.02467999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>61.60888000000001</v>
+        <v>140.58521</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>428.1289200000001</v>
+        <v>519.10615</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>144.16811</v>
+        <v>155.87407</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>351.7077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>415.1639400000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>182.831</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12812.17728</v>
+        <v>15627.32838</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2006.87756</v>
+        <v>4159.87314</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1423.68144</v>
+        <v>4724.84726</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1078.70482</v>
+        <v>2825.14058</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1838.63483</v>
+        <v>5472.02127</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1368.13566</v>
+        <v>6541.37792</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3571.77838</v>
+        <v>16534.62276</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2849.19261</v>
+        <v>17714.02868</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2706.0306</v>
+        <v>14964.28647</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23848.53203</v>
+        <v>65546.45692</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11573.73734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>146962.40608</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>637070.107</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>93.26891999999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>21.17477</v>
+        <v>23.55162</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>1.53655</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>10.0925</v>
+        <v>70.69750000000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>47.68914</v>
@@ -2069,25 +2115,30 @@
         <v>0.9155599999999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>58.26128</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>62.81162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>155.11867</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4.134840000000001</v>
+        <v>4.13806</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>0.14275</v>
+        <v>2.380580000000001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>7.33891</v>
+        <v>7.33913</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>24.5072</v>
@@ -2111,193 +2162,218 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>10.78015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>10.93389</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>801.6591299999999</v>
+        <v>4982.42864</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1207.93929</v>
+        <v>4915.41227</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2368.19524</v>
+        <v>8992.288909999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1378.52668</v>
+        <v>6280.986170000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1480.62494</v>
+        <v>3158.37147</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3527.27229</v>
+        <v>6188.35438</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1254.71684</v>
+        <v>4793.92749</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1956.9353</v>
+        <v>9093.332100000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1652.10888</v>
+        <v>8089.22933</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7523.648340000001</v>
+        <v>11446.62287</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9852.65566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14302.66153</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>20852.64</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>15165.53897</v>
+        <v>18727.30926</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3950.80024</v>
+        <v>6553.24257</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3904.06558</v>
+        <v>10219.77424</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3002.7783</v>
+        <v>5160.60292</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5087.76143</v>
+        <v>11452.38161</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3567.247719999999</v>
+        <v>43245.56482</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5342.74259</v>
+        <v>17019.06417</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4446.09558</v>
+        <v>23466.8845</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7848.863669999999</v>
+        <v>28077.4226</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31642.92367</v>
+        <v>98085.54769999998</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14469.23214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>89667.97593</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>116002.556</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>111.78178</v>
+        <v>134.97566</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>17.95658</v>
+        <v>18.90131</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>53.42955000000001</v>
+        <v>91.31220000000002</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>206.79811</v>
+        <v>243.85229</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>181.23569</v>
+        <v>269.88118</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>23.41795</v>
+        <v>141.55764</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>161.46941</v>
+        <v>187.717</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>68.74694000000001</v>
+        <v>116.66762</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>280.71561</v>
+        <v>380.74554</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>652.3902399999999</v>
+        <v>932.4526199999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>486.04627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>489.88825</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1709.644</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1002.46373</v>
+        <v>1535.61659</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>585.17422</v>
+        <v>834.8713300000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>449.3008199999999</v>
+        <v>700.1131</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1147.8809</v>
+        <v>1214.74606</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2355.99888</v>
+        <v>2513.90747</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>772.5929100000001</v>
+        <v>1070.57214</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>364.10142</v>
+        <v>610.7325499999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1264.76361</v>
+        <v>1567.03546</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1446.89562</v>
+        <v>2064.85129</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2469.23689</v>
+        <v>4161.63251</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2861.42963</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3861.41572</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>10807.602</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>142.92385</v>
+        <v>143.36306</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6.28275</v>
+        <v>20.5088</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>14.2771</v>
+        <v>32.0719</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>31.43182</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.0032</v>
+        <v>1.17868</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>42.87188</v>
+        <v>46.77241</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>92.60955</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5.5344</v>
+        <v>116.47744</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>80.86924999999999</v>
@@ -2306,67 +2382,77 @@
         <v>83.15049999999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.50866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>795.82409</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>125.022</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12953.59187</v>
+        <v>15786.8341</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2244.68865</v>
+        <v>4456.20172</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1963.46367</v>
+        <v>7687.683250000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>860.63125</v>
+        <v>2457.24019</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1988.61875</v>
+        <v>7685.43295</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1355.90019</v>
+        <v>14544.63489</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4569.93275</v>
+        <v>15353.55836</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2396.47044</v>
+        <v>20716.49636</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3807.815309999999</v>
+        <v>21342.91983</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>26187.64106</v>
+        <v>89878.57206000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10617.35928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>83437.91716</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>101956.273</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>42.56293</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1.67593</v>
+        <v>4.14048</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2.29693</v>
+        <v>8.39967</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>0.16424</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>10.0925</v>
+        <v>44.1053</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>50.09268</v>
@@ -2378,25 +2464,30 @@
         <v>7.74334</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.21519</v>
+        <v>0.21989</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>63.10627</v>
+        <v>241.51981</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0.00245</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.57929</v>
+        <v>13.68175</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0.58272</v>
+        <v>0.58275</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>14.33314</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>2.64548</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>8.406000000000001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>911.6355199999999</v>
+        <v>1070.27517</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1094.43939</v>
+        <v>1218.03618</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1406.96437</v>
+        <v>1685.86098</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>729.90093</v>
+        <v>1187.03303</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>539.84002</v>
+        <v>925.90364</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1310.79163</v>
+        <v>27380.35458</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>182.45235</v>
+        <v>709.66005</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>665.3610500000001</v>
+        <v>904.98848</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2215.35627</v>
+        <v>4190.82038</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2182.56684</v>
+        <v>2783.38833</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>501.24037</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1080.28278</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1395.476</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6099.43489</v>
+        <v>11932.20089</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4150.54251</v>
+        <v>9631.253500000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4475.1657</v>
+        <v>10155.12538</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5311.23601</v>
+        <v>8271.19894</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3928.86334</v>
+        <v>7550.778399999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4450.49975</v>
+        <v>11514.21953</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4359.10781</v>
+        <v>12175.66744</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4829.66178</v>
+        <v>17262.90322</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3807.65453</v>
+        <v>12757.99254</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17494.19816</v>
+        <v>120567.16769</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19920.27096</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>76739.44330000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>224057.398</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5887.387580000001</v>
+        <v>9382.619719999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3973.43363</v>
+        <v>7346.37388</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4306.97158</v>
+        <v>8808.244919999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5206.626240000001</v>
+        <v>7731.17149</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3817.04088</v>
+        <v>7409.936860000002</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4425.45499</v>
+        <v>10279.76515</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4339.659259999999</v>
+        <v>11933.38769</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4740.84561</v>
+        <v>16978.21428</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3694.04534</v>
+        <v>12254.59903</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>16843.5125</v>
+        <v>119052.53198</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>19199.90377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>73952.11603999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>221208.649</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>212.04731</v>
+        <v>2549.58117</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>177.10888</v>
+        <v>2284.87962</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>168.19412</v>
+        <v>1346.88046</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>104.60977</v>
+        <v>540.0274499999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>111.82246</v>
+        <v>140.84154</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>25.04476</v>
+        <v>1234.45438</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>19.44855</v>
+        <v>242.27975</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>88.81617</v>
+        <v>284.68894</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>113.60919</v>
+        <v>503.3935099999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>650.6856599999999</v>
+        <v>1514.63571</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>720.3671899999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2787.32726</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2848.749</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>10814.15158</v>
+        <v>11365.88121</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11509.17188</v>
+        <v>10384.16474</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9571.2287</v>
+        <v>5092.104060000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1467.32999</v>
+        <v>-13739.22558</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-3456.54854</v>
+        <v>-15223.39671</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-646.0835</v>
+        <v>-18143.3262</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2848.38025</v>
+        <v>9084.56884</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>992.6851500000004</v>
+        <v>43057.16682</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2062.09912</v>
+        <v>-24395.07523000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>41415.09899</v>
+        <v>507905.97116</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>29382.78224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>614795.6904600001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>536460.322</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2697.26682</v>
+        <v>15482.26722</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3760.86134</v>
+        <v>10469.66124</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4623.14086</v>
+        <v>14038.47371</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3529.834269999999</v>
+        <v>17272.18573</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2494.04687</v>
+        <v>21186.07256</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2614.09544</v>
+        <v>7343.586760000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2708.7664</v>
+        <v>30265.37981</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3206.45267</v>
+        <v>10258.26616</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4810.62475</v>
+        <v>9508.731330000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8971.89373</v>
+        <v>20120.28151</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14854.10379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>33179.52961999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>27708.435</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>77.43809</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>28.4473</v>
+        <v>29.1054</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>583.15436</v>
+        <v>655.98662</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>49.96320000000001</v>
+        <v>50.42574</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>52.48422</v>
+        <v>1539.69161</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2e-05</v>
+        <v>0.10054</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>192.88502</v>
+        <v>247.57065</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5.18947</v>
+        <v>46.81948</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>14.13291</v>
+        <v>49.02180000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>251.14602</v>
+        <v>265.49851</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>28.53746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>68.65488999999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>87.93000000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2619.828730000001</v>
+        <v>15404.82913</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3732.41404</v>
+        <v>10440.55584</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4039.9865</v>
+        <v>13382.48709</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3479.87107</v>
+        <v>17221.75999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2441.56265</v>
+        <v>19646.38095</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2614.09542</v>
+        <v>7343.486220000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2515.88138</v>
+        <v>30017.80916</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3201.2632</v>
+        <v>10211.44668</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4796.49184</v>
+        <v>9459.70953</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8720.74771</v>
+        <v>19854.783</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14825.56633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33110.87473</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>27620.505</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4230.82735</v>
+        <v>9802.9398</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7110.3094</v>
+        <v>17306.91173</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>33701.35252</v>
+        <v>50296.59302</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4416.80766</v>
+        <v>11226.77621</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3348.99326</v>
+        <v>12681.0606</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8595.12609</v>
+        <v>26389.02959</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5121.06517</v>
+        <v>10691.19406</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9518.394950000002</v>
+        <v>19833.64643</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4944.17573</v>
+        <v>9394.604579999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>20594.76711</v>
+        <v>40291.61756</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14082.59483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>20571.62371</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>48415.774</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>172.53629</v>
+        <v>2636.23072</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>147.27547</v>
+        <v>1897.69298</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>249.50133</v>
+        <v>838.8139500000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>263.4620400000001</v>
+        <v>2472.43615</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>373.96207</v>
+        <v>1725.13564</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>397.89532</v>
+        <v>1323.43213</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>347.21575</v>
+        <v>2141.179</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>486.03301</v>
+        <v>1415.17265</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>568.6484</v>
+        <v>1520.35601</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1533.08238</v>
+        <v>3479.77628</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2447.1907</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3040.11583</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3831.58</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>166.21681</v>
+        <v>185.0481</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>411.00755</v>
+        <v>6251.649429999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6120.49556</v>
+        <v>6684.741819999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>209.34379</v>
+        <v>981.27972</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>80.003</v>
+        <v>494.17311</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>772.4316399999999</v>
+        <v>948.0448699999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>741.9096</v>
+        <v>1069.97734</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>191.02985</v>
+        <v>197.0434</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>282.76576</v>
+        <v>417.29203</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>338.64417</v>
+        <v>463.31641</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>127.8802</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>581.12943</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>257.945</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3892.074250000001</v>
+        <v>6981.66098</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6552.02638</v>
+        <v>9157.569320000002</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>27331.35563</v>
+        <v>42773.03725</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3944.00183</v>
+        <v>7773.060340000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2895.02819</v>
+        <v>10461.75185</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>7424.79913</v>
+        <v>24117.55259</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4031.939820000001</v>
+        <v>7480.037719999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8841.33209</v>
+        <v>18221.43038</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4092.76157</v>
+        <v>7456.956539999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>18723.04056</v>
+        <v>36348.52487000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11507.52393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16950.37845</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>44326.249</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9280.591050000001</v>
+        <v>17045.20863</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8159.723819999998</v>
+        <v>3546.91425</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-19506.98296</v>
+        <v>-31166.01525</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>580.3566000000001</v>
+        <v>-7693.816059999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-4311.494930000001</v>
+        <v>-6718.38475</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-6627.114149999999</v>
+        <v>-37188.76903</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-5260.67902</v>
+        <v>28658.75459</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5319.25713</v>
+        <v>33481.78655</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2195.6501</v>
+        <v>-24280.94848</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>29792.22561</v>
+        <v>487734.63511</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>30154.29120000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>627403.59637</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>515752.983</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4248.059139999999</v>
+        <v>5346.097769999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4451.33078</v>
+        <v>5844.821960000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4362.428150000001</v>
+        <v>5277.2438</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3808.84067</v>
+        <v>4728.8634</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3289.63473</v>
+        <v>4797.12329</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3598.844029999999</v>
+        <v>4473.35856</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3379.70486</v>
+        <v>5850.456689999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3944.75667</v>
+        <v>6702.47522</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4397.27883</v>
+        <v>6114.27521</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>14812.14782</v>
+        <v>19558.03093</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>16754.61895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>33143.71840999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>112191.63</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5032.53191</v>
+        <v>11699.11086</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3708.39304</v>
+        <v>-2297.90771</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-23869.41111</v>
+        <v>-36443.25905000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3228.48407</v>
+        <v>-12422.67946</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7601.129660000001</v>
+        <v>-11515.50804</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10225.95818</v>
+        <v>-41662.12759</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-8640.383880000001</v>
+        <v>22808.2979</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-9264.013800000001</v>
+        <v>26779.31133</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-6592.928930000001</v>
+        <v>-30395.22369</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>14980.07779</v>
+        <v>468176.60418</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>13399.67225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>594259.87796</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>403561.353</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2335</v>
+        <v>2566</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2262</v>
+        <v>2511</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2197</v>
+        <v>2443</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2007</v>
+        <v>2283</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1842</v>
+        <v>2192</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1762</v>
+        <v>2137</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1741</v>
+        <v>2146</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1738</v>
+        <v>2193</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1841</v>
+        <v>2293</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2231</v>
+        <v>2905</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3252</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>